--- a/safe-box-doc/接口-v2.0.xlsx
+++ b/safe-box-doc/接口-v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="8970" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320">
   <si>
     <t>功能</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>isAccountFree(开户费用: 免费-0, 收费-1)</t>
+  </si>
+  <si>
+    <t>keyNo钥匙号</t>
   </si>
   <si>
     <t>openAccountFee(开户费用)</t>
@@ -416,6 +419,27 @@
     <t>paymentType(付款方式：现金-0, 刷卡-1, 支票-2)</t>
   </si>
   <si>
+    <t>新增接口-setAccountNewBox</t>
+  </si>
+  <si>
+    <t>租赁信息</t>
+  </si>
+  <si>
+    <t>accountId(账户id)</t>
+  </si>
+  <si>
+    <t>新增接口-setAccountNewCustomer</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>customerType客户类型（不知道怎么填，数据库为INT）</t>
+  </si>
+  <si>
+    <t>cardType卡类型（不知道怎么填，数据库为INT）</t>
+  </si>
+  <si>
     <t>续租</t>
   </si>
   <si>
@@ -595,9 +619,6 @@
     <t>password 密码</t>
   </si>
   <si>
-    <t>keyId 钥匙号</t>
-  </si>
-  <si>
     <t>接口17-removeReportLossState</t>
   </si>
   <si>
@@ -1009,7 +1030,7 @@
     <t>operateFeeType</t>
   </si>
   <si>
-    <t>action（0-启用，1-禁用）</t>
+    <t>status（0-启用，1-禁用）</t>
   </si>
   <si>
     <t>接口42</t>
@@ -1030,11 +1051,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1116,8 +1137,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1134,35 +1246,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1189,64 +1272,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1272,7 +1299,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1293,13 +1320,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,6 +1363,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,78 +1482,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1891,6 +1912,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1902,6 +1962,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1929,65 +2009,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1996,10 +2017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2008,137 +2029,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2307,12 +2328,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2361,18 +2376,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2418,21 +2421,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2493,9 +2487,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2508,9 +2499,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2520,182 +2508,197 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3098,39 +3101,39 @@
       </c>
     </row>
     <row r="2" ht="21" spans="1:6">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="188" t="s">
+      <c r="D3" s="108"/>
+      <c r="E3" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="189"/>
+      <c r="F3" s="183"/>
       <c r="G3" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:7">
-      <c r="A4" s="186"/>
-      <c r="B4" s="187"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="191"/>
+      <c r="A4" s="180"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="185"/>
       <c r="G4" s="36"/>
     </row>
   </sheetData>
@@ -3152,17 +3155,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D67" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82:F82"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115:F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="40.375" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="114" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="105" customWidth="1"/>
     <col min="5" max="5" width="25.375" customWidth="1"/>
     <col min="6" max="7" width="20.625" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
@@ -3183,89 +3186,89 @@
         <v>3</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="110" customFormat="1" ht="31" customHeight="1" spans="1:7">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-    </row>
-    <row r="3" s="111" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A3" s="115" t="s">
+    <row r="2" s="101" customFormat="1" ht="31" customHeight="1" spans="1:7">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" s="102" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A3" s="106" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="117"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="49"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119" t="s">
+      <c r="G3" s="49"/>
+      <c r="H3" s="109" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="111" customFormat="1" spans="1:8">
-      <c r="A4" s="120"/>
+    <row r="4" s="102" customFormat="1" spans="1:8">
+      <c r="A4" s="110"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="68" t="s">
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="124"/>
-    </row>
-    <row r="5" s="111" customFormat="1" spans="1:8">
-      <c r="A5" s="120"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="113"/>
+    </row>
+    <row r="5" s="102" customFormat="1" spans="1:8">
+      <c r="A5" s="110"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="68" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="124"/>
-    </row>
-    <row r="6" s="111" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A6" s="120"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="113"/>
+    </row>
+    <row r="6" s="102" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A6" s="110"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="50" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="51"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="128"/>
-    </row>
-    <row r="7" s="111" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A7" s="120"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-    </row>
-    <row r="8" s="111" customFormat="1" spans="1:8">
-      <c r="A8" s="120"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="116"/>
+    </row>
+    <row r="7" s="102" customFormat="1" ht="28" customHeight="1" spans="1:7">
+      <c r="A7" s="110"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+    </row>
+    <row r="8" s="102" customFormat="1" spans="1:8">
+      <c r="A8" s="110"/>
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
@@ -3277,25 +3280,25 @@
         <v>8</v>
       </c>
       <c r="F8" s="49"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="129" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="111" customFormat="1" spans="1:8">
-      <c r="A9" s="120"/>
+    <row r="9" s="102" customFormat="1" spans="1:8">
+      <c r="A9" s="110"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="130"/>
-    </row>
-    <row r="10" s="111" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A10" s="120"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="30"/>
+    </row>
+    <row r="10" s="102" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A10" s="110"/>
       <c r="B10" s="11"/>
       <c r="C10" s="50" t="s">
         <v>20</v>
@@ -3303,11 +3306,11 @@
       <c r="D10" s="51"/>
       <c r="E10" s="50"/>
       <c r="F10" s="51"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="131"/>
-    </row>
-    <row r="11" s="111" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A11" s="120"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" s="102" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A11" s="110"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -3315,166 +3318,166 @@
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
     </row>
-    <row r="12" s="111" customFormat="1" spans="1:8">
-      <c r="A12" s="120"/>
+    <row r="12" s="102" customFormat="1" spans="1:8">
+      <c r="A12" s="110"/>
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="76" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="49"/>
-      <c r="E12" s="132" t="s">
+      <c r="E12" s="117" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="133"/>
-      <c r="H12" s="119" t="s">
+      <c r="G12" s="25"/>
+      <c r="H12" s="109" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" s="111" customFormat="1" ht="16" customHeight="1" spans="1:8">
-      <c r="A13" s="120"/>
+    <row r="13" s="102" customFormat="1" ht="16" customHeight="1" spans="1:8">
+      <c r="A13" s="110"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="86" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="134"/>
-      <c r="H13" s="135"/>
-    </row>
-    <row r="14" s="111" customFormat="1" spans="1:8">
-      <c r="A14" s="120"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="118"/>
+    </row>
+    <row r="14" s="102" customFormat="1" spans="1:8">
+      <c r="A14" s="110"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="102" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="136"/>
-      <c r="H14" s="135"/>
-    </row>
-    <row r="15" s="111" customFormat="1" spans="1:8">
-      <c r="A15" s="120"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="118"/>
+    </row>
+    <row r="15" s="102" customFormat="1" spans="1:8">
+      <c r="A15" s="110"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="102" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="123"/>
-      <c r="H15" s="135"/>
-    </row>
-    <row r="16" s="111" customFormat="1" spans="1:8">
-      <c r="A16" s="120"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="118"/>
+    </row>
+    <row r="16" s="102" customFormat="1" spans="1:8">
+      <c r="A16" s="110"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="102" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="123"/>
-      <c r="H16" s="135"/>
-    </row>
-    <row r="17" s="111" customFormat="1" spans="1:8">
-      <c r="A17" s="120"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="118"/>
+    </row>
+    <row r="17" s="102" customFormat="1" spans="1:8">
+      <c r="A17" s="110"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="102" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="135"/>
-    </row>
-    <row r="18" s="111" customFormat="1" spans="1:8">
-      <c r="A18" s="120"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="118"/>
+    </row>
+    <row r="18" s="102" customFormat="1" spans="1:8">
+      <c r="A18" s="110"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="102" t="s">
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="123"/>
-      <c r="H18" s="135"/>
-    </row>
-    <row r="19" s="111" customFormat="1" spans="1:8">
-      <c r="A19" s="120"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="118"/>
+    </row>
+    <row r="19" s="102" customFormat="1" spans="1:8">
+      <c r="A19" s="110"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="102" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="123"/>
-      <c r="H19" s="135"/>
-    </row>
-    <row r="20" s="111" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A20" s="120"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="118"/>
+    </row>
+    <row r="20" s="102" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A20" s="110"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="102" t="s">
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="137" t="s">
+      <c r="F20" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="138"/>
-      <c r="H20" s="135"/>
-    </row>
-    <row r="21" s="111" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A21" s="120"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="118"/>
+    </row>
+    <row r="21" s="102" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A21" s="110"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="102" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="137" t="s">
+      <c r="F21" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="138"/>
-      <c r="H21" s="135"/>
-    </row>
-    <row r="22" s="111" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A22" s="120"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="118"/>
+    </row>
+    <row r="22" s="102" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A22" s="110"/>
       <c r="B22" s="11"/>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
-      <c r="E22" s="139"/>
+      <c r="E22" s="120"/>
       <c r="F22" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="127"/>
-      <c r="H22" s="140"/>
-    </row>
-    <row r="23" s="111" customFormat="1" ht="29" customHeight="1" spans="1:8">
-      <c r="A23" s="120"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="121"/>
+    </row>
+    <row r="23" s="102" customFormat="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A23" s="110"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
@@ -3483,910 +3486,1404 @@
       <c r="G23" s="53"/>
       <c r="H23" s="53"/>
     </row>
-    <row r="24" s="111" customFormat="1" spans="1:8">
-      <c r="A24" s="120"/>
+    <row r="24" s="102" customFormat="1" spans="1:8">
+      <c r="A24" s="110"/>
       <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="142" t="s">
+      <c r="D24" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="99" t="s">
+      <c r="E24" s="90" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="49"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="144" t="s">
+      <c r="G24" s="49"/>
+      <c r="H24" s="109" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" s="111" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A25" s="120"/>
+    <row r="25" s="102" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A25" s="110"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="145" t="s">
+      <c r="D25" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
-    </row>
-    <row r="26" s="111" customFormat="1" spans="1:8">
-      <c r="A26" s="120"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="118"/>
+    </row>
+    <row r="26" s="102" customFormat="1" spans="1:8">
+      <c r="A26" s="110"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="148" t="s">
+      <c r="D26" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="147"/>
-    </row>
-    <row r="27" s="111" customFormat="1" spans="1:8">
-      <c r="A27" s="120"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="118"/>
+    </row>
+    <row r="27" s="102" customFormat="1" spans="1:8">
+      <c r="A27" s="110"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="149" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="147"/>
-    </row>
-    <row r="28" s="111" customFormat="1" spans="1:8">
-      <c r="A28" s="120"/>
+      <c r="D27" s="126" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="118"/>
+    </row>
+    <row r="28" s="102" customFormat="1" spans="1:8">
+      <c r="A28" s="110"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="149" t="s">
+      <c r="C28" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="147"/>
-    </row>
-    <row r="29" s="111" customFormat="1" spans="1:8">
-      <c r="A29" s="120"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="118"/>
+    </row>
+    <row r="29" s="102" customFormat="1" spans="1:8">
+      <c r="A29" s="110"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="68" t="s">
-        <v>46</v>
+      <c r="C29" s="66" t="s">
+        <v>47</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
-    </row>
-    <row r="30" s="111" customFormat="1" spans="1:8">
-      <c r="A30" s="120"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="118"/>
+    </row>
+    <row r="30" s="102" customFormat="1" spans="1:8">
+      <c r="A30" s="110"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="68" t="s">
-        <v>47</v>
+      <c r="C30" s="66" t="s">
+        <v>48</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="147"/>
-    </row>
-    <row r="31" s="111" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A31" s="120"/>
+        <v>49</v>
+      </c>
+      <c r="E30" s="93"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="118"/>
+    </row>
+    <row r="31" s="102" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A31" s="110"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="68" t="s">
-        <v>49</v>
+      <c r="C31" s="66" t="s">
+        <v>50</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="102"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="147"/>
-    </row>
-    <row r="32" s="111" customFormat="1" spans="1:8">
-      <c r="A32" s="120"/>
+        <v>51</v>
+      </c>
+      <c r="E31" s="93"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="118"/>
+    </row>
+    <row r="32" s="102" customFormat="1" spans="1:8">
+      <c r="A32" s="110"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="141" t="s">
+      <c r="C32" s="122" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="102"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="147"/>
-    </row>
-    <row r="33" s="111" customFormat="1" spans="1:8">
-      <c r="A33" s="120"/>
+        <v>52</v>
+      </c>
+      <c r="E32" s="93"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="118"/>
+    </row>
+    <row r="33" s="102" customFormat="1" spans="1:8">
+      <c r="A33" s="110"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="150" t="s">
-        <v>52</v>
+      <c r="C33" s="127" t="s">
+        <v>53</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="102"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="147"/>
-    </row>
-    <row r="34" s="111" customFormat="1" ht="27.75" spans="1:8">
-      <c r="A34" s="120"/>
+        <v>54</v>
+      </c>
+      <c r="E33" s="93"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="118"/>
+    </row>
+    <row r="34" s="102" customFormat="1" ht="27" spans="1:8">
+      <c r="A34" s="110"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="151" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="102"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="147"/>
-    </row>
-    <row r="35" s="111" customFormat="1" spans="1:8">
-      <c r="A35" s="120"/>
+      <c r="D34" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="93"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="118"/>
+    </row>
+    <row r="35" s="102" customFormat="1" spans="1:8">
+      <c r="A35" s="110"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="68" t="s">
-        <v>55</v>
+      <c r="C35" s="66" t="s">
+        <v>56</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="102"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="147"/>
-    </row>
-    <row r="36" s="111" customFormat="1" spans="1:8">
-      <c r="A36" s="120"/>
+        <v>57</v>
+      </c>
+      <c r="E35" s="93"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="118"/>
+    </row>
+    <row r="36" s="102" customFormat="1" spans="1:8">
+      <c r="A36" s="110"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="66" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="102"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="147"/>
-    </row>
-    <row r="37" s="111" customFormat="1" spans="1:8">
-      <c r="A37" s="120"/>
+        <v>58</v>
+      </c>
+      <c r="E36" s="93"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="118"/>
+    </row>
+    <row r="37" s="102" customFormat="1" spans="1:8">
+      <c r="A37" s="110"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="66" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="102"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="147"/>
-    </row>
-    <row r="38" s="111" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A38" s="120"/>
+        <v>59</v>
+      </c>
+      <c r="E37" s="93"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="118"/>
+    </row>
+    <row r="38" s="102" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A38" s="110"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="152" t="s">
+      <c r="C38" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="102"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="147"/>
-    </row>
-    <row r="39" s="111" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A39" s="120"/>
+      <c r="D38" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="93"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="118"/>
+    </row>
+    <row r="39" s="102" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A39" s="110"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="152" t="s">
+      <c r="C39" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="102"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="147"/>
-    </row>
-    <row r="40" s="111" customFormat="1" spans="1:8">
-      <c r="A40" s="120"/>
+      <c r="D39" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="93"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="118"/>
+    </row>
+    <row r="40" s="102" customFormat="1" spans="1:8">
+      <c r="A40" s="110"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="68" t="s">
-        <v>63</v>
+      <c r="C40" s="66" t="s">
+        <v>64</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="102"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="147"/>
-    </row>
-    <row r="41" s="111" customFormat="1" spans="1:8">
-      <c r="A41" s="120"/>
+        <v>65</v>
+      </c>
+      <c r="E40" s="93"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="118"/>
+    </row>
+    <row r="41" s="102" customFormat="1" spans="1:8">
+      <c r="A41" s="110"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="66" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="102"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="147"/>
-    </row>
-    <row r="42" s="111" customFormat="1" spans="1:8">
-      <c r="A42" s="120"/>
+        <v>66</v>
+      </c>
+      <c r="E41" s="93"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="118"/>
+    </row>
+    <row r="42" s="102" customFormat="1" spans="1:8">
+      <c r="A42" s="110"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="68" t="s">
-        <v>66</v>
+      <c r="C42" s="66" t="s">
+        <v>67</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="102"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="147"/>
-    </row>
-    <row r="43" s="111" customFormat="1" spans="1:8">
-      <c r="A43" s="120"/>
+        <v>68</v>
+      </c>
+      <c r="E42" s="93"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="118"/>
+    </row>
+    <row r="43" s="102" customFormat="1" spans="1:8">
+      <c r="A43" s="110"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="68" t="s">
-        <v>68</v>
+      <c r="C43" s="66" t="s">
+        <v>69</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="102"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="147"/>
-    </row>
-    <row r="44" s="111" customFormat="1" spans="1:8">
-      <c r="A44" s="120"/>
+        <v>70</v>
+      </c>
+      <c r="E43" s="93"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="118"/>
+    </row>
+    <row r="44" s="102" customFormat="1" spans="1:8">
+      <c r="A44" s="110"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="68" t="s">
-        <v>70</v>
+      <c r="C44" s="66" t="s">
+        <v>71</v>
       </c>
       <c r="D44" s="10"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="147"/>
-    </row>
-    <row r="45" s="111" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A45" s="120"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="118"/>
+    </row>
+    <row r="45" s="102" customFormat="1" spans="1:8">
+      <c r="A45" s="110"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="153" t="s">
-        <v>71</v>
+      <c r="C45" s="130" t="s">
+        <v>72</v>
       </c>
       <c r="D45" s="10"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="147"/>
-    </row>
-    <row r="46" s="111" customFormat="1" spans="1:8">
-      <c r="A46" s="120"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="118"/>
+    </row>
+    <row r="46" s="102" customFormat="1" spans="1:8">
+      <c r="A46" s="110"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="150" t="s">
-        <v>72</v>
+      <c r="C46" s="127" t="s">
+        <v>73</v>
       </c>
       <c r="D46" s="10"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="147"/>
-    </row>
-    <row r="47" s="111" customFormat="1" spans="1:8">
-      <c r="A47" s="120"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="118"/>
+    </row>
+    <row r="47" s="102" customFormat="1" spans="1:8">
+      <c r="A47" s="110"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="68" t="s">
-        <v>73</v>
+      <c r="C47" s="66" t="s">
+        <v>74</v>
       </c>
       <c r="D47" s="10"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="147"/>
-    </row>
-    <row r="48" s="111" customFormat="1" spans="1:8">
-      <c r="A48" s="120"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="118"/>
+    </row>
+    <row r="48" s="102" customFormat="1" spans="1:8">
+      <c r="A48" s="110"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="68" t="s">
+      <c r="C48" s="66" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="10"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="147"/>
-    </row>
-    <row r="49" s="111" customFormat="1" spans="1:8">
-      <c r="A49" s="120"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="118"/>
+    </row>
+    <row r="49" s="102" customFormat="1" spans="1:8">
+      <c r="A49" s="110"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="66" t="s">
         <v>34</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="147"/>
-    </row>
-    <row r="50" s="111" customFormat="1" spans="1:8">
-      <c r="A50" s="120"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="118"/>
+    </row>
+    <row r="50" s="102" customFormat="1" spans="1:8">
+      <c r="A50" s="110"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="68" t="s">
-        <v>74</v>
+      <c r="C50" s="66" t="s">
+        <v>75</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="147"/>
-    </row>
-    <row r="51" s="111" customFormat="1" spans="1:8">
-      <c r="A51" s="120"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="118"/>
+    </row>
+    <row r="51" s="102" customFormat="1" spans="1:8">
+      <c r="A51" s="110"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="68" t="s">
-        <v>75</v>
+      <c r="C51" s="66" t="s">
+        <v>76</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="147"/>
-    </row>
-    <row r="52" s="111" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A52" s="154"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="118"/>
+    </row>
+    <row r="52" s="102" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A52" s="131"/>
       <c r="B52" s="11"/>
       <c r="C52" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="121"/>
+    </row>
+    <row r="53" s="103" customFormat="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A53" s="132"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="102"/>
+    </row>
+    <row r="54" s="104" customFormat="1" spans="1:8">
+      <c r="A54" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="136"/>
+      <c r="E54" s="137" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="138"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="139"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="141"/>
+      <c r="E55" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="141"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="141"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+    </row>
+    <row r="57" s="104" customFormat="1" spans="1:8">
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="140" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="141"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="142"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="141"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="140" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="141"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="141"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" s="141"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="58"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="140" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="141"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="68"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="58"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="141"/>
+      <c r="E63" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" s="141"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="68"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="58"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="141"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="68"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="58"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="140"/>
+      <c r="D65" s="141"/>
+      <c r="E65" s="140" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="141"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="58"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="140" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="141"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="140"/>
+      <c r="D67" s="141"/>
+      <c r="E67" s="140" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="141"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="68"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="141"/>
+      <c r="E68" s="140" t="s">
+        <v>94</v>
+      </c>
+      <c r="F68" s="141"/>
+      <c r="G68" s="68"/>
+      <c r="H68" s="68"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="140"/>
+      <c r="D69" s="141"/>
+      <c r="E69" s="143" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" s="144"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="140"/>
+      <c r="D70" s="141"/>
+      <c r="E70" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="F70" s="141"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="68"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="58"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="140"/>
+      <c r="D71" s="141"/>
+      <c r="E71" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" s="141"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="68"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="F72" s="141"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="68"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="141"/>
+      <c r="E73" s="140" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="141"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="68"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="141"/>
+      <c r="E74" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74" s="141"/>
+      <c r="G74" s="68"/>
+      <c r="H74" s="68"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="58"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="140"/>
+      <c r="D75" s="141"/>
+      <c r="E75" s="140" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" s="141"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="68"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="140"/>
+      <c r="D76" s="141"/>
+      <c r="E76" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="F76" s="141"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="68"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="58"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="140"/>
+      <c r="D77" s="141"/>
+      <c r="E77" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="F77" s="141"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="68"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="58"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="140"/>
+      <c r="D78" s="141"/>
+      <c r="E78" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="F78" s="141"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="68"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="58"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="140"/>
+      <c r="D79" s="141"/>
+      <c r="E79" s="140" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" s="141"/>
+      <c r="G79" s="68"/>
+      <c r="H79" s="68"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="58"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="140"/>
+      <c r="D80" s="141"/>
+      <c r="E80" s="140" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" s="141"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="68"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="58"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="140"/>
+      <c r="D81" s="141"/>
+      <c r="E81" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="141"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="68"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="141"/>
+      <c r="E82" s="140" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="141"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="68"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="141"/>
+      <c r="E83" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" s="141"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="58"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="140"/>
+      <c r="D84" s="141"/>
+      <c r="E84" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="144"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="68"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="58"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="140"/>
+      <c r="D85" s="141"/>
+      <c r="E85" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="141"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="68"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="140"/>
+      <c r="D86" s="141"/>
+      <c r="E86" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="141"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="68"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="58"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="140"/>
+      <c r="D87" s="141"/>
+      <c r="E87" s="140" t="s">
+        <v>110</v>
+      </c>
+      <c r="F87" s="141"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="68"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="140"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="140" t="s">
+        <v>111</v>
+      </c>
+      <c r="F88" s="141"/>
+      <c r="G88" s="68"/>
+      <c r="H88" s="68"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="58"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="140"/>
+      <c r="D89" s="141"/>
+      <c r="E89" s="140" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" s="141"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="140"/>
+      <c r="D90" s="141"/>
+      <c r="E90" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" s="141"/>
+      <c r="G90" s="68"/>
+      <c r="H90" s="68"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="58"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="140"/>
+      <c r="D91" s="141"/>
+      <c r="E91" s="140" t="s">
+        <v>112</v>
+      </c>
+      <c r="F91" s="141"/>
+      <c r="G91" s="68"/>
+      <c r="H91" s="68"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="58"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="140"/>
+      <c r="D92" s="141"/>
+      <c r="E92" s="140" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" s="141"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="58"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="140"/>
+      <c r="D93" s="141"/>
+      <c r="E93" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="F93" s="141"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="68"/>
+    </row>
+    <row r="94" ht="14.25" spans="1:8">
+      <c r="A94" s="73"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="145"/>
+      <c r="D94" s="146"/>
+      <c r="E94" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="146"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+    </row>
+    <row r="95" ht="25" customHeight="1"/>
+    <row r="96" ht="25" customHeight="1" spans="1:8">
+      <c r="A96" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" s="147" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" s="148"/>
+      <c r="E96" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="49"/>
+      <c r="G96" s="149"/>
+      <c r="H96" s="149"/>
+    </row>
+    <row r="97" ht="14.25" spans="1:8">
+      <c r="A97" s="58"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="150" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" s="151"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="152"/>
+      <c r="H97" s="152"/>
+    </row>
+    <row r="98" ht="14.25" spans="1:8">
+      <c r="A98" s="58"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="153" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="154"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="152"/>
+      <c r="H98" s="152"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="58"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="156"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="152"/>
+      <c r="H99" s="152"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="58"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="155" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="156"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="152"/>
+      <c r="H100" s="152"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="58"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="155" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" s="156"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="152"/>
+      <c r="H101" s="152"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="58"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="155" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102" s="156"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="152"/>
+      <c r="H102" s="152"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="58"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="155" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" s="156"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="152"/>
+      <c r="H103" s="152"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="58"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="157" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" s="158"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="152"/>
+      <c r="H104" s="152"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="58"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="155" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" s="156"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="152"/>
+      <c r="H105" s="152"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="58"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="155" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" s="156"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="152"/>
+      <c r="H106" s="152"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="58"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="155" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="156"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="152"/>
+      <c r="H107" s="152"/>
+    </row>
+    <row r="108" ht="14.25" spans="1:8">
+      <c r="A108" s="58"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="159" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108" s="160"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="152"/>
+      <c r="H108" s="152"/>
+    </row>
+    <row r="109" ht="14.25" spans="1:8">
+      <c r="A109" s="58"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="160"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="152"/>
+      <c r="H109" s="152"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="58"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="155" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" s="156"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="152"/>
+      <c r="H110" s="152"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="58"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="155" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" s="156"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="152"/>
+      <c r="H111" s="152"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="58"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" s="156"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="152"/>
+      <c r="H112" s="152"/>
+    </row>
+    <row r="113" ht="14.25" spans="1:8">
+      <c r="A113" s="73"/>
+      <c r="B113" s="73"/>
+      <c r="C113" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="D113" s="162"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="163"/>
+      <c r="H113" s="163"/>
+    </row>
+    <row r="114" ht="27" customHeight="1"/>
+    <row r="115" spans="1:8">
+      <c r="A115" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" s="164" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="165" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="166"/>
+      <c r="E115" s="167" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="168"/>
+      <c r="G115" s="149"/>
+      <c r="H115" s="149"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="169"/>
+      <c r="B116" s="169"/>
+      <c r="C116" s="170" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="171"/>
+      <c r="E116" s="172"/>
+      <c r="F116" s="173"/>
+      <c r="G116" s="152"/>
+      <c r="H116" s="152"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="169"/>
+      <c r="B117" s="169"/>
+      <c r="C117" s="174" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="171"/>
+      <c r="E117" s="172"/>
+      <c r="F117" s="173"/>
+      <c r="G117" s="152"/>
+      <c r="H117" s="152"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="169"/>
+      <c r="B118" s="169"/>
+      <c r="C118" s="157" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="158"/>
+      <c r="E118" s="172"/>
+      <c r="F118" s="173"/>
+      <c r="G118" s="152"/>
+      <c r="H118" s="152"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="169"/>
+      <c r="B119" s="169"/>
+      <c r="C119" s="155" t="s">
+        <v>56</v>
+      </c>
+      <c r="D119" s="156"/>
+      <c r="E119" s="172"/>
+      <c r="F119" s="173"/>
+      <c r="G119" s="152"/>
+      <c r="H119" s="152"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="169"/>
+      <c r="B120" s="169"/>
+      <c r="C120" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" s="156"/>
+      <c r="E120" s="172"/>
+      <c r="F120" s="173"/>
+      <c r="G120" s="152"/>
+      <c r="H120" s="152"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="169"/>
+      <c r="B121" s="169"/>
+      <c r="C121" s="155" t="s">
+        <v>31</v>
+      </c>
+      <c r="D121" s="156"/>
+      <c r="E121" s="172"/>
+      <c r="F121" s="173"/>
+      <c r="G121" s="152"/>
+      <c r="H121" s="152"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="169"/>
+      <c r="B122" s="169"/>
+      <c r="C122" s="155" t="s">
+        <v>60</v>
+      </c>
+      <c r="D122" s="156"/>
+      <c r="E122" s="172"/>
+      <c r="F122" s="173"/>
+      <c r="G122" s="152"/>
+      <c r="H122" s="152"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="169"/>
+      <c r="B123" s="169"/>
+      <c r="C123" s="155" t="s">
+        <v>62</v>
+      </c>
+      <c r="D123" s="156"/>
+      <c r="E123" s="172"/>
+      <c r="F123" s="173"/>
+      <c r="G123" s="152"/>
+      <c r="H123" s="152"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="169"/>
+      <c r="B124" s="169"/>
+      <c r="C124" s="155" t="s">
+        <v>64</v>
+      </c>
+      <c r="D124" s="156"/>
+      <c r="E124" s="172"/>
+      <c r="F124" s="173"/>
+      <c r="G124" s="152"/>
+      <c r="H124" s="152"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="169"/>
+      <c r="B125" s="169"/>
+      <c r="C125" s="155" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="156"/>
+      <c r="E125" s="172"/>
+      <c r="F125" s="173"/>
+      <c r="G125" s="152"/>
+      <c r="H125" s="152"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="169"/>
+      <c r="B126" s="169"/>
+      <c r="C126" s="155" t="s">
+        <v>67</v>
+      </c>
+      <c r="D126" s="156"/>
+      <c r="E126" s="172"/>
+      <c r="F126" s="173"/>
+      <c r="G126" s="152"/>
+      <c r="H126" s="152"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="169"/>
+      <c r="B127" s="169"/>
+      <c r="C127" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="D127" s="156"/>
+      <c r="E127" s="172"/>
+      <c r="F127" s="173"/>
+      <c r="G127" s="152"/>
+      <c r="H127" s="152"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="169"/>
+      <c r="B128" s="169"/>
+      <c r="C128" s="155" t="s">
+        <v>71</v>
+      </c>
+      <c r="D128" s="156"/>
+      <c r="E128" s="172"/>
+      <c r="F128" s="173"/>
+      <c r="G128" s="152"/>
+      <c r="H128" s="152"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="169"/>
+      <c r="B129" s="169"/>
+      <c r="C129" s="175" t="s">
+        <v>72</v>
+      </c>
+      <c r="D129" s="176"/>
+      <c r="E129" s="172"/>
+      <c r="F129" s="173"/>
+      <c r="G129" s="152"/>
+      <c r="H129" s="152"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="169"/>
+      <c r="B130" s="169"/>
+      <c r="C130" s="174" t="s">
+        <v>119</v>
+      </c>
+      <c r="D130" s="171"/>
+      <c r="E130" s="172"/>
+      <c r="F130" s="173"/>
+      <c r="G130" s="152"/>
+      <c r="H130" s="152"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="169"/>
+      <c r="B131" s="169"/>
+      <c r="C131" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="D131" s="156"/>
+      <c r="E131" s="172"/>
+      <c r="F131" s="173"/>
+      <c r="G131" s="152"/>
+      <c r="H131" s="152"/>
+    </row>
+    <row r="132" ht="14.25" spans="1:8">
+      <c r="A132" s="169"/>
+      <c r="B132" s="169"/>
+      <c r="C132" s="155" t="s">
+        <v>32</v>
+      </c>
+      <c r="D132" s="156"/>
+      <c r="E132" s="172"/>
+      <c r="F132" s="173"/>
+      <c r="G132" s="152"/>
+      <c r="H132" s="152"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="169"/>
+      <c r="B133" s="169"/>
+      <c r="C133" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" s="156"/>
+      <c r="E133" s="172"/>
+      <c r="F133" s="173"/>
+      <c r="G133" s="152"/>
+      <c r="H133" s="152"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="169"/>
+      <c r="B134" s="169"/>
+      <c r="C134" s="155" t="s">
+        <v>75</v>
+      </c>
+      <c r="D134" s="156"/>
+      <c r="E134" s="172"/>
+      <c r="F134" s="173"/>
+      <c r="G134" s="152"/>
+      <c r="H134" s="152"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="169"/>
+      <c r="B135" s="169"/>
+      <c r="C135" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="155"/>
-      <c r="H52" s="156"/>
-    </row>
-    <row r="53" s="112" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A53" s="157"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="159"/>
-      <c r="F53" s="159"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="111"/>
-    </row>
-    <row r="54" s="113" customFormat="1" spans="1:8">
-      <c r="A54" s="161" t="s">
+      <c r="D135" s="156"/>
+      <c r="E135" s="172"/>
+      <c r="F135" s="173"/>
+      <c r="G135" s="152"/>
+      <c r="H135" s="152"/>
+    </row>
+    <row r="136" ht="14.25" spans="1:8">
+      <c r="A136" s="177"/>
+      <c r="B136" s="177"/>
+      <c r="C136" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="162" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="163" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="164"/>
-      <c r="E54" s="165" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="166"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="168"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="169"/>
-      <c r="B55" s="170"/>
-      <c r="C55" s="171"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="F55" s="174"/>
-      <c r="G55" s="175"/>
-      <c r="H55" s="175"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="169"/>
-      <c r="B56" s="170"/>
-      <c r="C56" s="171"/>
-      <c r="D56" s="172"/>
-      <c r="E56" s="173" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56" s="174"/>
-      <c r="G56" s="175"/>
-      <c r="H56" s="175"/>
-    </row>
-    <row r="57" s="113" customFormat="1" spans="1:8">
-      <c r="A57" s="169"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="171"/>
-      <c r="D57" s="172"/>
-      <c r="E57" s="173" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" s="174"/>
-      <c r="G57" s="175"/>
-      <c r="H57" s="176"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="169"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="171"/>
-      <c r="D58" s="172"/>
-      <c r="E58" s="173" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58" s="174"/>
-      <c r="G58" s="175"/>
-      <c r="H58" s="175"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="169"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="171"/>
-      <c r="D59" s="172"/>
-      <c r="E59" s="173" t="s">
-        <v>84</v>
-      </c>
-      <c r="F59" s="174"/>
-      <c r="G59" s="175"/>
-      <c r="H59" s="175"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="169"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="171"/>
-      <c r="D60" s="172"/>
-      <c r="E60" s="173" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="174"/>
-      <c r="G60" s="175"/>
-      <c r="H60" s="175"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="169"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="171"/>
-      <c r="D61" s="172"/>
-      <c r="E61" s="173" t="s">
-        <v>86</v>
-      </c>
-      <c r="F61" s="174"/>
-      <c r="G61" s="175"/>
-      <c r="H61" s="175"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="169"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="171"/>
-      <c r="D62" s="172"/>
-      <c r="E62" s="173" t="s">
-        <v>87</v>
-      </c>
-      <c r="F62" s="174"/>
-      <c r="G62" s="175"/>
-      <c r="H62" s="175"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="169"/>
-      <c r="B63" s="170"/>
-      <c r="C63" s="171"/>
-      <c r="D63" s="172"/>
-      <c r="E63" s="173" t="s">
-        <v>88</v>
-      </c>
-      <c r="F63" s="174"/>
-      <c r="G63" s="175"/>
-      <c r="H63" s="175"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="169"/>
-      <c r="B64" s="170"/>
-      <c r="C64" s="171"/>
-      <c r="D64" s="172"/>
-      <c r="E64" s="173" t="s">
-        <v>89</v>
-      </c>
-      <c r="F64" s="174"/>
-      <c r="G64" s="175"/>
-      <c r="H64" s="175"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="169"/>
-      <c r="B65" s="170"/>
-      <c r="C65" s="171"/>
-      <c r="D65" s="172"/>
-      <c r="E65" s="173" t="s">
-        <v>90</v>
-      </c>
-      <c r="F65" s="174"/>
-      <c r="G65" s="175"/>
-      <c r="H65" s="175"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="169"/>
-      <c r="B66" s="170"/>
-      <c r="C66" s="171"/>
-      <c r="D66" s="172"/>
-      <c r="E66" s="173" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66" s="174"/>
-      <c r="G66" s="175"/>
-      <c r="H66" s="175"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="169"/>
-      <c r="B67" s="170"/>
-      <c r="C67" s="171"/>
-      <c r="D67" s="172"/>
-      <c r="E67" s="173" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67" s="174"/>
-      <c r="G67" s="175"/>
-      <c r="H67" s="175"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="169"/>
-      <c r="B68" s="170"/>
-      <c r="C68" s="171"/>
-      <c r="D68" s="172"/>
-      <c r="E68" s="173" t="s">
-        <v>93</v>
-      </c>
-      <c r="F68" s="174"/>
-      <c r="G68" s="175"/>
-      <c r="H68" s="175"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="169"/>
-      <c r="B69" s="170"/>
-      <c r="C69" s="171"/>
-      <c r="D69" s="172"/>
-      <c r="E69" s="177" t="s">
-        <v>94</v>
-      </c>
-      <c r="F69" s="178"/>
-      <c r="G69" s="175"/>
-      <c r="H69" s="175"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="169"/>
-      <c r="B70" s="170"/>
-      <c r="C70" s="171"/>
-      <c r="D70" s="172"/>
-      <c r="E70" s="173" t="s">
-        <v>95</v>
-      </c>
-      <c r="F70" s="174"/>
-      <c r="G70" s="175"/>
-      <c r="H70" s="175"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="169"/>
-      <c r="B71" s="170"/>
-      <c r="C71" s="171"/>
-      <c r="D71" s="172"/>
-      <c r="E71" s="173" t="s">
-        <v>96</v>
-      </c>
-      <c r="F71" s="174"/>
-      <c r="G71" s="175"/>
-      <c r="H71" s="175"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="169"/>
-      <c r="B72" s="170"/>
-      <c r="C72" s="171"/>
-      <c r="D72" s="172"/>
-      <c r="E72" s="173" t="s">
-        <v>97</v>
-      </c>
-      <c r="F72" s="174"/>
-      <c r="G72" s="175"/>
-      <c r="H72" s="175"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="169"/>
-      <c r="B73" s="170"/>
-      <c r="C73" s="171"/>
-      <c r="D73" s="172"/>
-      <c r="E73" s="173" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="174"/>
-      <c r="G73" s="175"/>
-      <c r="H73" s="175"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="169"/>
-      <c r="B74" s="170"/>
-      <c r="C74" s="171"/>
-      <c r="D74" s="172"/>
-      <c r="E74" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="F74" s="174"/>
-      <c r="G74" s="175"/>
-      <c r="H74" s="175"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="169"/>
-      <c r="B75" s="170"/>
-      <c r="C75" s="171"/>
-      <c r="D75" s="172"/>
-      <c r="E75" s="173" t="s">
-        <v>100</v>
-      </c>
-      <c r="F75" s="174"/>
-      <c r="G75" s="175"/>
-      <c r="H75" s="175"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="169"/>
-      <c r="B76" s="170"/>
-      <c r="C76" s="171"/>
-      <c r="D76" s="172"/>
-      <c r="E76" s="173" t="s">
-        <v>101</v>
-      </c>
-      <c r="F76" s="174"/>
-      <c r="G76" s="175"/>
-      <c r="H76" s="175"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="169"/>
-      <c r="B77" s="170"/>
-      <c r="C77" s="171"/>
-      <c r="D77" s="172"/>
-      <c r="E77" s="173" t="s">
-        <v>102</v>
-      </c>
-      <c r="F77" s="174"/>
-      <c r="G77" s="175"/>
-      <c r="H77" s="175"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="169"/>
-      <c r="B78" s="170"/>
-      <c r="C78" s="171"/>
-      <c r="D78" s="172"/>
-      <c r="E78" s="173" t="s">
-        <v>103</v>
-      </c>
-      <c r="F78" s="174"/>
-      <c r="G78" s="175"/>
-      <c r="H78" s="175"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="169"/>
-      <c r="B79" s="170"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="172"/>
-      <c r="E79" s="173" t="s">
-        <v>104</v>
-      </c>
-      <c r="F79" s="174"/>
-      <c r="G79" s="175"/>
-      <c r="H79" s="175"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="169"/>
-      <c r="B80" s="170"/>
-      <c r="C80" s="171"/>
-      <c r="D80" s="172"/>
-      <c r="E80" s="173" t="s">
-        <v>105</v>
-      </c>
-      <c r="F80" s="174"/>
-      <c r="G80" s="175"/>
-      <c r="H80" s="175"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="169"/>
-      <c r="B81" s="170"/>
-      <c r="C81" s="171"/>
-      <c r="D81" s="172"/>
-      <c r="E81" s="173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="174"/>
-      <c r="G81" s="175"/>
-      <c r="H81" s="175"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="169"/>
-      <c r="B82" s="170"/>
-      <c r="C82" s="171"/>
-      <c r="D82" s="172"/>
-      <c r="E82" s="173" t="s">
-        <v>106</v>
-      </c>
-      <c r="F82" s="174"/>
-      <c r="G82" s="175"/>
-      <c r="H82" s="175"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="169"/>
-      <c r="B83" s="170"/>
-      <c r="C83" s="171"/>
-      <c r="D83" s="172"/>
-      <c r="E83" s="173" t="s">
-        <v>107</v>
-      </c>
-      <c r="F83" s="174"/>
-      <c r="G83" s="175"/>
-      <c r="H83" s="175"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="169"/>
-      <c r="B84" s="170"/>
-      <c r="C84" s="171"/>
-      <c r="D84" s="172"/>
-      <c r="E84" s="177" t="s">
-        <v>108</v>
-      </c>
-      <c r="F84" s="178"/>
-      <c r="G84" s="175"/>
-      <c r="H84" s="175"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="169"/>
-      <c r="B85" s="170"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="172"/>
-      <c r="E85" s="173" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="174"/>
-      <c r="G85" s="175"/>
-      <c r="H85" s="175"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="169"/>
-      <c r="B86" s="170"/>
-      <c r="C86" s="171"/>
-      <c r="D86" s="172"/>
-      <c r="E86" s="173" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" s="174"/>
-      <c r="G86" s="175"/>
-      <c r="H86" s="175"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="169"/>
-      <c r="B87" s="170"/>
-      <c r="C87" s="171"/>
-      <c r="D87" s="172"/>
-      <c r="E87" s="173" t="s">
-        <v>109</v>
-      </c>
-      <c r="F87" s="174"/>
-      <c r="G87" s="175"/>
-      <c r="H87" s="175"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="169"/>
-      <c r="B88" s="170"/>
-      <c r="C88" s="171"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="173" t="s">
-        <v>110</v>
-      </c>
-      <c r="F88" s="174"/>
-      <c r="G88" s="175"/>
-      <c r="H88" s="175"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="169"/>
-      <c r="B89" s="170"/>
-      <c r="C89" s="171"/>
-      <c r="D89" s="172"/>
-      <c r="E89" s="173" t="s">
-        <v>44</v>
-      </c>
-      <c r="F89" s="174"/>
-      <c r="G89" s="175"/>
-      <c r="H89" s="175"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="169"/>
-      <c r="B90" s="170"/>
-      <c r="C90" s="171"/>
-      <c r="D90" s="172"/>
-      <c r="E90" s="173" t="s">
-        <v>45</v>
-      </c>
-      <c r="F90" s="174"/>
-      <c r="G90" s="175"/>
-      <c r="H90" s="175"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="169"/>
-      <c r="B91" s="170"/>
-      <c r="C91" s="171"/>
-      <c r="D91" s="172"/>
-      <c r="E91" s="173" t="s">
-        <v>111</v>
-      </c>
-      <c r="F91" s="174"/>
-      <c r="G91" s="175"/>
-      <c r="H91" s="175"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="169"/>
-      <c r="B92" s="170"/>
-      <c r="C92" s="171"/>
-      <c r="D92" s="172"/>
-      <c r="E92" s="173" t="s">
-        <v>47</v>
-      </c>
-      <c r="F92" s="174"/>
-      <c r="G92" s="175"/>
-      <c r="H92" s="175"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="169"/>
-      <c r="B93" s="170"/>
-      <c r="C93" s="171"/>
-      <c r="D93" s="172"/>
-      <c r="E93" s="173" t="s">
-        <v>49</v>
-      </c>
-      <c r="F93" s="174"/>
-      <c r="G93" s="175"/>
-      <c r="H93" s="175"/>
-    </row>
-    <row r="94" ht="14.25" spans="1:8">
-      <c r="A94" s="179"/>
-      <c r="B94" s="180"/>
-      <c r="C94" s="181"/>
-      <c r="D94" s="182"/>
-      <c r="E94" s="183" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="184"/>
-      <c r="G94" s="185"/>
-      <c r="H94" s="185"/>
+      <c r="D136" s="162"/>
+      <c r="E136" s="178"/>
+      <c r="F136" s="179"/>
+      <c r="G136" s="163"/>
+      <c r="H136" s="163"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="116">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -4441,13 +4938,57 @@
     <mergeCell ref="E92:F92"/>
     <mergeCell ref="E93:F93"/>
     <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C136:D136"/>
     <mergeCell ref="A3:A52"/>
     <mergeCell ref="A54:A94"/>
+    <mergeCell ref="A96:A113"/>
+    <mergeCell ref="A115:A136"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B12:B22"/>
     <mergeCell ref="B24:B52"/>
     <mergeCell ref="B54:B94"/>
+    <mergeCell ref="B96:B113"/>
+    <mergeCell ref="B115:B136"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H12:H22"/>
@@ -4457,6 +4998,8 @@
     <mergeCell ref="C12:D22"/>
     <mergeCell ref="E24:F52"/>
     <mergeCell ref="C54:D94"/>
+    <mergeCell ref="E96:F113"/>
+    <mergeCell ref="E115:F136"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4510,154 +5053,154 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="58" t="s">
-        <v>112</v>
+      <c r="A3" s="56" t="s">
+        <v>120</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="48" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F3" s="49"/>
-      <c r="G3" s="59"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="60"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5" ht="14.25" spans="1:7">
-      <c r="A5" s="60"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="67"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" ht="15" spans="1:6">
-      <c r="A6" s="60"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="90"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="60"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="13" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="48" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="49"/>
-      <c r="G7" s="59"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="60"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
+      <c r="C8" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="60"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
+      <c r="C9" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="60"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
+      <c r="C10" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="67"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="60"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
+      <c r="C11" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="60"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
+      <c r="C12" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="60"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
+      <c r="C13" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="60"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
+      <c r="C14" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
     </row>
     <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="79"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="15"/>
       <c r="C15" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="50"/>
       <c r="F15" s="51"/>
-      <c r="G15" s="61"/>
+      <c r="G15" s="59"/>
     </row>
     <row r="16" ht="15" spans="1:7">
       <c r="A16" s="52"/>
@@ -4669,92 +5212,92 @@
       <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="58" t="s">
-        <v>123</v>
+      <c r="A17" s="56" t="s">
+        <v>131</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C17" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="48" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F17" s="49"/>
-      <c r="G17" s="59"/>
+      <c r="G17" s="57"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="60"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="106" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="70" t="s">
-        <v>127</v>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="98"/>
+      <c r="G18" s="68" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="60"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="60"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="60"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="60"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
     </row>
     <row r="23" ht="14.25" spans="1:7">
-      <c r="A23" s="60"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="15"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
-      <c r="E23" s="108" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="109"/>
-      <c r="G23" s="61"/>
+      <c r="E23" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="100"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" ht="15" spans="1:7">
-      <c r="A24" s="60"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
@@ -4763,107 +5306,107 @@
       <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="60"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="13" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="48" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="49"/>
-      <c r="G25" s="59"/>
+      <c r="G25" s="57"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="60"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
+      <c r="C26" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="67"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="60"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="70"/>
+      <c r="C27" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="67"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="60"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
+      <c r="C28" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="60"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="70"/>
+      <c r="C29" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="67"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="68"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="60"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="70"/>
+      <c r="C30" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="60"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="70"/>
+      <c r="C31" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="67"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="60"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="70"/>
+      <c r="C32" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="67"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" ht="14.25" spans="1:7">
-      <c r="A33" s="79"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="15"/>
       <c r="C33" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33" s="51"/>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
-      <c r="G33" s="61"/>
+      <c r="G33" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -4923,8 +5466,8 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4952,7 +5495,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="45" t="s">
@@ -4960,29 +5503,29 @@
       </c>
     </row>
     <row r="2" ht="34" customHeight="1" spans="1:6">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="48" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="49"/>
-      <c r="G3" s="59"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="29" t="s">
         <v>9</v>
       </c>
@@ -4991,12 +5534,12 @@
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="50" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="50"/>
       <c r="F4" s="51"/>
-      <c r="G4" s="61"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:6">
@@ -5008,253 +5551,253 @@
       <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="81" t="s">
-        <v>141</v>
+      <c r="A6" s="75" t="s">
+        <v>149</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="83"/>
+        <v>150</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="77"/>
       <c r="E6" s="48" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F6" s="49"/>
-      <c r="G6" s="59"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="84"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="85" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="70"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="68"/>
       <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="84"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="68" t="s">
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="84"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="68" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
       <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="84"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="68" t="s">
+      <c r="C10" s="79"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="84"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="84"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="84"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="84"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="84"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="68" t="s">
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="84"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="35"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="84"/>
+    <row r="17" ht="14.25" spans="1:8">
+      <c r="A17" s="78"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="61"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="36"/>
     </row>
     <row r="18" ht="15" spans="1:6">
-      <c r="A18" s="60"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="60"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="67"/>
+      <c r="E19" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="91" t="s">
+      <c r="F19" s="67"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="60"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
+      <c r="C20" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="67"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="60"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
+      <c r="C21" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="67"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="60"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
+      <c r="C22" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="60"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="60"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
+      <c r="C24" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="67"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="35"/>
     </row>
     <row r="25" ht="14.25" spans="1:8">
-      <c r="A25" s="79"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="11"/>
       <c r="C25" s="50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
-      <c r="G25" s="61"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="36"/>
     </row>
     <row r="26" ht="25" customHeight="1" spans="2:6">
@@ -5265,53 +5808,53 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:8">
-      <c r="A27" s="92" t="s">
-        <v>147</v>
+      <c r="A27" s="86" t="s">
+        <v>155</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="48" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F27" s="49"/>
-      <c r="G27" s="93"/>
+      <c r="G27" s="29"/>
       <c r="H27" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:8">
-      <c r="A28" s="62"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="94"/>
+      <c r="C28" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="35"/>
       <c r="H28" s="35"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:8">
-      <c r="A29" s="62"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="50" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F29" s="51"/>
-      <c r="G29" s="97"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="36"/>
     </row>
     <row r="30" ht="29" customHeight="1" spans="1:6">
-      <c r="A30" s="62"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -5319,117 +5862,117 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" ht="14.25" spans="1:8">
-      <c r="A31" s="62"/>
-      <c r="B31" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="63" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="99" t="s">
+      <c r="D31" s="62"/>
+      <c r="E31" s="90" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="49"/>
-      <c r="G31" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="100"/>
+      <c r="G31" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="91"/>
     </row>
     <row r="32" ht="14.25" spans="1:8">
-      <c r="A32" s="62"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="66" t="s">
+      <c r="A32" s="60"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="70"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="62"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="70"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="62"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="70"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="62"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="69"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="70"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
       <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="62"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="67"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="35"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="62"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="69"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="70"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="67"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
       <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="62"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="70"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68"/>
       <c r="H38" s="35"/>
     </row>
     <row r="39" ht="14.25" spans="1:8">
-      <c r="A39" s="103"/>
-      <c r="B39" s="104"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="95"/>
       <c r="C39" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D39" s="51"/>
-      <c r="E39" s="105"/>
+      <c r="E39" s="96"/>
       <c r="F39" s="51"/>
-      <c r="G39" s="61"/>
+      <c r="G39" s="59"/>
       <c r="H39" s="36"/>
     </row>
   </sheetData>
@@ -5507,7 +6050,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+      <selection activeCell="B6" sqref="B6:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5535,10 +6078,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="45" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5551,35 +6094,35 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:7">
-      <c r="A3" s="58" t="s">
-        <v>156</v>
+      <c r="A3" s="56" t="s">
+        <v>164</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="48" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="49"/>
-      <c r="G3" s="59"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" ht="17" customHeight="1" spans="1:7">
-      <c r="A4" s="60"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="11"/>
       <c r="C4" s="50" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="50"/>
       <c r="F4" s="51"/>
-      <c r="G4" s="61"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:6">
-      <c r="A5" s="62"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
@@ -5587,79 +6130,79 @@
       <c r="F5" s="53"/>
     </row>
     <row r="6" ht="14.25" spans="1:7">
-      <c r="A6" s="60"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="64"/>
+        <v>168</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="62"/>
       <c r="E6" s="48" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="49"/>
-      <c r="G6" s="65" t="s">
-        <v>162</v>
+      <c r="G6" s="63" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
-      <c r="A7" s="60"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
+      <c r="C7" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="60"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
+      <c r="C8" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" ht="14.25" spans="1:7">
-      <c r="A9" s="60"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
+      <c r="C9" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="60"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
+      <c r="C10" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="67"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="60"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="15"/>
       <c r="C11" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="50"/>
       <c r="F11" s="51"/>
-      <c r="G11" s="61"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" ht="15" spans="1:6">
-      <c r="A12" s="60"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
@@ -5667,198 +6210,198 @@
       <c r="F12" s="53"/>
     </row>
     <row r="13" ht="14.25" spans="1:7">
-      <c r="A13" s="60"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="48" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="49"/>
-      <c r="G13" s="59"/>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" ht="14.25" spans="1:7">
-      <c r="A14" s="60"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
+      <c r="C14" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="68"/>
     </row>
     <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="60"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
+      <c r="C15" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="60"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
+      <c r="C16" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
     </row>
     <row r="17" ht="14.25" spans="1:7">
-      <c r="A17" s="60"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="60"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
+      <c r="C18" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19" ht="14.25" spans="1:7">
-      <c r="A19" s="60"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
+      <c r="C19" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="60"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
+      <c r="C20" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="67"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="60"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
+      <c r="C21" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="67"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="60"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="77"/>
+      <c r="C22" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="51"/>
       <c r="E22" s="50"/>
       <c r="F22" s="51"/>
-      <c r="G22" s="61"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" ht="15" spans="1:6">
-      <c r="A23" s="62"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
     </row>
     <row r="24" ht="14.25" spans="1:7">
-      <c r="A24" s="60"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D24" s="47"/>
       <c r="E24" s="48" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="49"/>
-      <c r="G24" s="65" t="s">
-        <v>173</v>
+      <c r="G24" s="63" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:7">
-      <c r="A25" s="60"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
+      <c r="C25" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="26" ht="14.25" spans="1:7">
-      <c r="A26" s="60"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="70"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
     </row>
     <row r="27" ht="14.25" spans="1:7">
-      <c r="A27" s="60"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="70"/>
+      <c r="C27" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="60"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
+      <c r="C28" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
     </row>
     <row r="29" ht="14.25" spans="1:7">
-      <c r="A29" s="79"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="15"/>
       <c r="C29" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="50"/>
       <c r="F29" s="51"/>
-      <c r="G29" s="61"/>
+      <c r="G29" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -5927,20 +6470,20 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="44" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="45" t="s">
@@ -5957,13 +6500,13 @@
     </row>
     <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>26</v>
@@ -5982,7 +6525,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="50" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="50"/>
@@ -5999,13 +6542,13 @@
     </row>
     <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="13" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>26</v>
@@ -6019,12 +6562,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="14.25" spans="1:8">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="50" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="50"/>
@@ -6062,8 +6605,8 @@
   <sheetPr/>
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -6079,22 +6622,22 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -6110,22 +6653,22 @@
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6135,7 +6678,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:6">
@@ -6145,7 +6688,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:1">
@@ -6154,19 +6697,19 @@
     <row r="7" ht="28" customHeight="1" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="13" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:6">
@@ -6176,7 +6719,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="16" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:1">
@@ -6185,19 +6728,19 @@
     <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6206,7 +6749,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="17" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -6216,7 +6759,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="17" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F12" s="10"/>
     </row>
@@ -6226,7 +6769,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="17" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -6236,7 +6779,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="18" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -6246,7 +6789,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="17" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -6256,7 +6799,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="16" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -6266,16 +6809,16 @@
     <row r="18" ht="27" customHeight="1" spans="1:6">
       <c r="A18" s="19"/>
       <c r="B18" s="20" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>8</v>
@@ -6291,22 +6834,22 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -6316,7 +6859,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="16" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" ht="28" customHeight="1" spans="1:6">
@@ -6330,19 +6873,19 @@
     <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="13" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6351,7 +6894,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="17" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F24" s="10"/>
     </row>
@@ -6361,7 +6904,7 @@
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="16" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F25" s="12"/>
     </row>
@@ -6376,16 +6919,16 @@
     <row r="27" ht="29" customHeight="1" spans="1:6">
       <c r="A27" s="19"/>
       <c r="B27" s="24" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>8</v>
@@ -6401,22 +6944,22 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6426,7 +6969,7 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="17" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6436,7 +6979,7 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="17" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6446,7 +6989,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="17" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:6">
@@ -6456,7 +6999,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="16" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:6">
@@ -6470,19 +7013,19 @@
     <row r="35" spans="1:6">
       <c r="A35" s="8"/>
       <c r="B35" s="25" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E35" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6491,7 +7034,7 @@
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="17" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F36" s="10"/>
     </row>
@@ -6501,7 +7044,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="17" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F37" s="10"/>
     </row>
@@ -6511,7 +7054,7 @@
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="17" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F38" s="10"/>
     </row>
@@ -6521,7 +7064,7 @@
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="16" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F39" s="12"/>
     </row>
@@ -6536,16 +7079,16 @@
     <row r="41" ht="25" customHeight="1" spans="1:6">
       <c r="A41" s="19"/>
       <c r="B41" s="24" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>8</v>
@@ -6561,22 +7104,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="28" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>9</v>
@@ -6589,18 +7132,18 @@
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="17" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G44" s="30"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" ht="14.25" spans="1:7">
       <c r="A45" s="8"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="16" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G45" s="31"/>
     </row>
@@ -6615,16 +7158,16 @@
     <row r="47" spans="1:7">
       <c r="A47" s="8"/>
       <c r="B47" s="25" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>8</v>
@@ -6639,7 +7182,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="17" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="30"/>
@@ -6650,7 +7193,7 @@
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="16" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="31"/>
@@ -6666,16 +7209,16 @@
     <row r="51" ht="22" customHeight="1" spans="1:7">
       <c r="A51" s="19"/>
       <c r="B51" s="24" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>8</v>
@@ -6694,22 +7237,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="28" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>9</v>
@@ -6722,7 +7265,7 @@
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="17" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G54" s="35"/>
     </row>
@@ -6733,7 +7276,7 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="17" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="G55" s="35"/>
     </row>
@@ -6744,7 +7287,7 @@
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="17" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G56" s="35"/>
     </row>
@@ -6755,7 +7298,7 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="17" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G57" s="35"/>
     </row>
@@ -6766,7 +7309,7 @@
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="17" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G58" s="35"/>
     </row>
@@ -6777,7 +7320,7 @@
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="17" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="G59" s="35"/>
     </row>
@@ -6788,7 +7331,7 @@
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="17" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="G60" s="35"/>
     </row>
@@ -6799,7 +7342,7 @@
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="16" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G61" s="36"/>
     </row>
@@ -6814,16 +7357,16 @@
     <row r="63" spans="1:7">
       <c r="A63" s="8"/>
       <c r="B63" s="25" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>8</v>
@@ -6838,7 +7381,7 @@
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="17" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="35"/>
@@ -6849,7 +7392,7 @@
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="17" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="35"/>
@@ -6860,7 +7403,7 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="17" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="35"/>
@@ -6871,7 +7414,7 @@
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="17" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="35"/>
@@ -6882,7 +7425,7 @@
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="17" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="35"/>
@@ -6893,7 +7436,7 @@
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="17" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="35"/>
@@ -6904,7 +7447,7 @@
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="16" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="36"/>
@@ -6920,16 +7463,16 @@
     <row r="72" ht="21" customHeight="1" spans="1:7">
       <c r="A72" s="19"/>
       <c r="B72" s="24" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F72" s="22" t="s">
         <v>8</v>
@@ -6941,22 +7484,22 @@
     <row r="73" ht="40" customHeight="1"/>
     <row r="74" spans="1:6">
       <c r="A74" s="28" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6966,7 +7509,7 @@
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="17" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6976,7 +7519,7 @@
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="17" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6986,7 +7529,7 @@
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="17" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6996,7 +7539,7 @@
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="17" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7006,7 +7549,7 @@
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="17" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -7016,7 +7559,7 @@
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="17" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7026,7 +7569,7 @@
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="17" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -7036,7 +7579,7 @@
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="17" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:6">
@@ -7046,7 +7589,7 @@
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="16" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
@@ -7060,19 +7603,19 @@
     <row r="85" spans="1:6">
       <c r="A85" s="8"/>
       <c r="B85" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -7081,7 +7624,7 @@
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="17" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F86" s="10"/>
     </row>
@@ -7091,7 +7634,7 @@
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="17" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F87" s="10"/>
     </row>
@@ -7101,7 +7644,7 @@
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="17" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F88" s="10"/>
     </row>
@@ -7111,7 +7654,7 @@
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="17" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F89" s="10"/>
     </row>
@@ -7121,7 +7664,7 @@
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="17" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F90" s="10"/>
     </row>
@@ -7131,7 +7674,7 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="17" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F91" s="10"/>
     </row>
@@ -7141,7 +7684,7 @@
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="17" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F92" s="10"/>
     </row>
@@ -7151,7 +7694,7 @@
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="17" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F93" s="10"/>
     </row>
@@ -7161,7 +7704,7 @@
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="17" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F94" s="10"/>
     </row>
@@ -7171,7 +7714,7 @@
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
       <c r="E95" s="16" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F95" s="12"/>
     </row>
@@ -7186,16 +7729,16 @@
     <row r="97" ht="18" customHeight="1" spans="1:6">
       <c r="A97" s="19"/>
       <c r="B97" s="20" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F97" s="22" t="s">
         <v>8</v>
@@ -7211,22 +7754,22 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="28" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7236,7 +7779,7 @@
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="17" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7246,7 +7789,7 @@
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="17" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7256,7 +7799,7 @@
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
       <c r="F102" s="17" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7266,7 +7809,7 @@
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="17" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7276,7 +7819,7 @@
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
       <c r="F104" s="17" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:6">
@@ -7286,7 +7829,7 @@
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="16" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:6">
@@ -7300,16 +7843,16 @@
     <row r="107" spans="1:6">
       <c r="A107" s="8"/>
       <c r="B107" s="6" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>8</v>
@@ -7321,7 +7864,7 @@
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="17" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F108" s="10"/>
     </row>
@@ -7331,7 +7874,7 @@
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
       <c r="E109" s="17" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F109" s="10"/>
     </row>
@@ -7341,7 +7884,7 @@
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="17" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F110" s="10"/>
     </row>
@@ -7351,7 +7894,7 @@
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
       <c r="E111" s="17" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F111" s="10"/>
     </row>
@@ -7361,7 +7904,7 @@
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="16" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F112" s="12"/>
     </row>
@@ -7376,16 +7919,16 @@
     <row r="114" spans="1:6">
       <c r="A114" s="8"/>
       <c r="B114" s="13" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E114" s="41" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>8</v>
@@ -7397,7 +7940,7 @@
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="42" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F115" s="12"/>
     </row>
@@ -7412,16 +7955,16 @@
     <row r="117" ht="24" customHeight="1" spans="1:6">
       <c r="A117" s="19"/>
       <c r="B117" s="20" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F117" s="21" t="s">
         <v>8</v>
